--- a/2024-Stock-RealtimeSupervision.xlsx
+++ b/2024-Stock-RealtimeSupervision.xlsx
@@ -7,15 +7,16 @@
     <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-01-30" sheetId="2" r:id="rId1"/>
-    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId2"/>
+    <sheet name="2024-01-31" sheetId="3" r:id="rId1"/>
+    <sheet name="2024-01-30" sheetId="2" r:id="rId2"/>
+    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>时间</t>
   </si>
@@ -45,6 +46,12 @@
   </si>
   <si>
     <t>跌停数</t>
+  </si>
+  <si>
+    <t>板块上涨率</t>
+  </si>
+  <si>
+    <t>概念上涨率</t>
   </si>
 </sst>
 </file>
@@ -660,7 +667,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,6 +678,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2477,6 +2487,1697 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:t>资金流入</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-55.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-139.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-166.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-306.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>北向流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-2.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-25.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="70234441"/>
+        <c:axId val="266621709"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2853</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="943427364"/>
+        <c:axId val="714785088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="943427364"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="714785088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="714785088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943427364"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="70234441"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266621709"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266621709"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70234441"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>市场温度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>温度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="508049863"/>
+        <c:axId val="175098577"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上涨数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下跌数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="858762367"/>
+        <c:axId val="584483621"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="508049863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175098577"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175098577"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508049863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="858762367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584483621"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="584483621"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="858762367"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>涨跌停</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>涨停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-30'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>跌停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-30'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-30'!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="946806907"/>
+        <c:axId val="462663474"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="946806907"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462663474"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462663474"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="946806907"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:t>资金流向</a:t>
             </a:r>
           </a:p>
@@ -3001,7 +4702,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3557,7 +5258,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4184,6 +5885,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
   <cs:axisTitle>
@@ -6800,6 +8621,1575 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7418,6 +10808,101 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673735</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="38100" y="2121535"/>
+        <a:ext cx="4779010" cy="2771140"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5673725" y="2063750"/>
+        <a:ext cx="4331335" cy="2781300"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>145415</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11322050" y="1911350"/>
+        <a:ext cx="4453890" cy="2828925"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7762,10 +11247,292 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="R2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="R3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="R4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="R5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:18">
+      <c r="A6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:18">
+      <c r="A7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" s="2">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:18">
+      <c r="A8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8" s="2">
+        <v>0.604166666666667</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:18">
+      <c r="A9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7825,158 +11592,288 @@
       <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1">
+        <v>2861</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-55.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.3</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1">
+        <v>1144</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3995</v>
+      </c>
+      <c r="J2" s="1">
+        <v>21.8</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>2857</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-99</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-18.4</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1">
+        <v>1031</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4088</v>
+      </c>
+      <c r="J3" s="1">
+        <v>20.1</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="M3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>2878</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-120</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-14.1</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>1436</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3699</v>
+      </c>
+      <c r="J4" s="1">
+        <v>28</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1">
+        <v>20</v>
+      </c>
+      <c r="O4" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>2865</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-139.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-19.8</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>947</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4230</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18.3</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="6" customFormat="1" spans="1:13">
+    <row r="6" customFormat="1" spans="1:15">
       <c r="A6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="B6" s="1">
+        <v>2857</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-166.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-25.3</v>
+      </c>
       <c r="G6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="H6" s="4">
+        <v>529</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4721</v>
+      </c>
+      <c r="J6" s="4">
+        <v>10.1</v>
+      </c>
       <c r="M6" s="2">
         <v>0.5625</v>
       </c>
+      <c r="N6" s="4">
+        <v>19</v>
+      </c>
+      <c r="O6" s="4">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="1:13">
+    <row r="7" customFormat="1" spans="1:15">
       <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="B7" s="1">
+        <v>2853</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-210</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-30.5</v>
+      </c>
       <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="H7" s="4">
+        <v>449</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4826</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.5</v>
+      </c>
       <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
+      <c r="N7" s="4">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4">
+        <v>71</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:13">
+    <row r="8" customFormat="1" spans="1:15">
       <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="B8" s="1">
+        <v>2842</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-256</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-23.3</v>
+      </c>
       <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="H8" s="4">
+        <v>326</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4975</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6.1</v>
+      </c>
       <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
+      <c r="N8" s="4">
+        <v>22</v>
+      </c>
+      <c r="O8" s="4">
+        <v>78</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+    <row r="9" s="1" customFormat="1" spans="1:15">
       <c r="A9" s="2">
         <v>0.625</v>
       </c>
+      <c r="B9" s="1">
+        <v>2830</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-306.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17.4</v>
+      </c>
       <c r="G9" s="2">
         <v>0.625</v>
       </c>
+      <c r="H9" s="1">
+        <v>313</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5007</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.9</v>
+      </c>
       <c r="M9" s="2">
         <v>0.625</v>
+      </c>
+      <c r="N9" s="1">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -7986,13 +11883,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F31" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8009,9 +11906,11 @@
     <col min="13" max="13" width="13.75" customWidth="1"/>
     <col min="14" max="14" width="16.25" customWidth="1"/>
     <col min="15" max="15" width="17.375" customWidth="1"/>
+    <col min="19" max="19" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8047,8 +11946,17 @@
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
@@ -8068,8 +11976,13 @@
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
+      <c r="R2" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>0.4375</v>
       </c>
@@ -8089,8 +12002,13 @@
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
+      <c r="R3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
@@ -8110,8 +12028,13 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
+      <c r="R4" s="2">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
@@ -8131,8 +12054,13 @@
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
+      <c r="R5" s="2">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>0.5625</v>
       </c>
@@ -8145,8 +12073,11 @@
       <c r="M6" s="2">
         <v>0.5625</v>
       </c>
+      <c r="R6" s="2">
+        <v>0.5625</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
@@ -8159,8 +12090,11 @@
       <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
+      <c r="R7" s="2">
+        <v>0.583333333333333</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
@@ -8173,8 +12107,11 @@
       <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
+      <c r="R8" s="2">
+        <v>0.604166666666667</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
+    <row r="9" s="1" customFormat="1" spans="1:18">
       <c r="A9" s="2">
         <v>0.625</v>
       </c>
@@ -8182,6 +12119,9 @@
         <v>0.625</v>
       </c>
       <c r="M9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="R9" s="2">
         <v>0.625</v>
       </c>
     </row>

--- a/2024-Stock-RealtimeSupervision.xlsx
+++ b/2024-Stock-RealtimeSupervision.xlsx
@@ -992,8 +992,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr altLang="en-US"/>
               <a:t>资金流向</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1010,6 +1012,205 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>资金流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-66.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-133.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-174.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-157.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>北向流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="820074765"/>
+        <c:axId val="264547091"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1018,7 +1219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$B$1</c:f>
+              <c:f>'2024-01-31'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1044,7 +1245,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'2024-01-31'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1077,10 +1278,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$B$2:$B$9</c:f>
+              <c:f>'2024-01-31'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2819.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2790</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2788</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1096,173 +1318,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="413117134"/>
-        <c:axId val="384872012"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>资金流入(亿)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>北向流入(亿)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="384612088"/>
-        <c:axId val="187895799"/>
+        <c:axId val="468722734"/>
+        <c:axId val="720351956"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413117134"/>
+        <c:axId val="468722734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384872012"/>
+        <c:crossAx val="720351956"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1311,9 +1371,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384872012"/>
+        <c:axId val="720351956"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2880"/>
+          <c:min val="2780"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1360,12 +1422,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413117134"/>
+        <c:crossAx val="468722734"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="384612088"/>
+        <c:axId val="820074765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1455,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187895799"/>
+        <c:crossAx val="264547091"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1463,629 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187895799"/>
+        <c:axId val="264547091"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820074765"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>市场温度</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>温度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$J$2:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="383794727"/>
+        <c:axId val="748145303"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上涨数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下跌数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$I$2:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="510847129"/>
+        <c:axId val="795605427"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383794727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748145303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="748145303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383794727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="510847129"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795605427"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795605427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +2121,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384612088"/>
+        <c:crossAx val="510847129"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,13 +2192,15 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1529,30 +2215,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>市场温度</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1562,6 +2224,25 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1571,22 +2252,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$J$1</c:f>
+              <c:f>'2024-01-31'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>温度</c:v>
+                  <c:v>涨停数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1599,7 +2280,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$G$2:$G$9</c:f>
+              <c:f>'2024-01-31'!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1632,10 +2313,122 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$J$2:$J$9</c:f>
+              <c:f>'2024-01-31'!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-01-31'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>跌停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-01-31'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-01-31'!$O$2:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1650,173 +2443,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="73498901"/>
-        <c:axId val="660564024"/>
+        <c:axId val="802424506"/>
+        <c:axId val="254677089"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>上涨数量</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$H$2:$H$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>下跌数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$G$2:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$I$2:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="914889742"/>
-        <c:axId val="652132006"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="914889742"/>
+        <c:axId val="802424506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +2488,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652132006"/>
+        <c:crossAx val="254677089"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1865,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652132006"/>
+        <c:axId val="254677089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1914,469 +2545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914889742"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="73498901"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="660564024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="660564024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73498901"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="zh-CN"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>涨跌停</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>涨停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$M$2:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$N$2:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$O$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>跌停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$M$2:$M$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$O$2:$O$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="187314922"/>
-        <c:axId val="95820550"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="187314922"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="95820550"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95820550"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="90200"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="187314922"/>
+        <c:crossAx val="802424506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2447,9 +2616,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -10717,24 +10888,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16510</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1313815</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67945" y="2073910"/>
-        <a:ext cx="4046220" cy="2761615"/>
+        <a:off x="9525" y="1901825"/>
+        <a:ext cx="4160520" cy="2676525"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10746,25 +10917,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5600700" y="2072640"/>
-        <a:ext cx="4149725" cy="2781935"/>
+        <a:off x="5620385" y="1901825"/>
+        <a:ext cx="4159250" cy="2686050"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10777,24 +10948,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11325225" y="2063750"/>
-        <a:ext cx="3636010" cy="2733675"/>
+        <a:off x="11283950" y="1939925"/>
+        <a:ext cx="3692525" cy="2724150"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11249,8 +11420,8 @@
   <sheetPr/>
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11321,22 +11492,38 @@
       <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="1">
+        <v>2810</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-66.4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.62</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="H2" s="1">
+        <v>770</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4502</v>
+      </c>
+      <c r="J2" s="1">
+        <v>14.6</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1">
+        <v>73</v>
+      </c>
       <c r="R2" s="2">
         <v>0.416666666666667</v>
       </c>
@@ -11347,22 +11534,38 @@
       <c r="A3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1">
+        <v>2792</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-133.6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.6</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="1">
+        <v>562</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4754</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10.6</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="M3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1">
+        <v>87</v>
+      </c>
       <c r="R3" s="2">
         <v>0.4375</v>
       </c>
@@ -11373,22 +11576,38 @@
       <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1">
+        <v>2809</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-174.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.46</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1">
+        <v>684</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4623</v>
+      </c>
+      <c r="J4" s="1">
+        <v>13</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>87</v>
+      </c>
       <c r="R4" s="2">
         <v>0.458333333333333</v>
       </c>
@@ -11399,22 +11618,38 @@
       <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1">
+        <v>2819.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-157.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.41</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1">
+        <v>952</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4317</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18.1</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1">
+        <v>27</v>
+      </c>
+      <c r="O5" s="1">
+        <v>82</v>
+      </c>
       <c r="R5" s="2">
         <v>0.479166666666667</v>
       </c>
@@ -11425,26 +11660,36 @@
       <c r="A6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="B6" s="1">
+        <v>2812</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-171</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.73</v>
+      </c>
       <c r="G6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="H6" s="4">
+        <v>761</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4535</v>
+      </c>
+      <c r="J6" s="4">
+        <v>14.4</v>
+      </c>
       <c r="M6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="N6" s="4">
+        <v>29</v>
+      </c>
+      <c r="O6" s="4">
+        <v>95</v>
+      </c>
       <c r="R6" s="2">
         <v>0.5625</v>
       </c>
@@ -11456,23 +11701,18 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7"/>
       <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
       <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="N7" s="4">
+        <v>24</v>
+      </c>
+      <c r="O7" s="4">
+        <v>158</v>
+      </c>
       <c r="R7" s="2">
         <v>0.583333333333333</v>
       </c>
@@ -11481,26 +11721,30 @@
       <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8"/>
-      <c r="F8"/>
+      <c r="B8" s="1">
+        <v>2790</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-276</v>
+      </c>
+      <c r="D8" s="1">
+        <v>19.22</v>
+      </c>
       <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+      <c r="H8" s="4">
+        <v>491</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4817</v>
+      </c>
+      <c r="J8" s="4">
+        <v>9.3</v>
+      </c>
       <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
       <c r="R8" s="2">
         <v>0.604166666666667</v>
       </c>
@@ -11509,11 +11753,35 @@
       <c r="A9" s="2">
         <v>0.625</v>
       </c>
+      <c r="B9" s="1">
+        <v>2788</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-329</v>
+      </c>
+      <c r="D9" s="1">
+        <v>37</v>
+      </c>
       <c r="G9" s="2">
         <v>0.625</v>
       </c>
+      <c r="H9" s="1">
+        <v>489</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4815</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.2</v>
+      </c>
       <c r="M9" s="2">
         <v>0.625</v>
+      </c>
+      <c r="N9" s="1">
+        <v>30</v>
+      </c>
+      <c r="O9" s="1">
+        <v>184</v>
       </c>
       <c r="R9" s="2">
         <v>0.625</v>
@@ -11752,22 +12020,22 @@
       <c r="G6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>529</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>4721</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>10.1</v>
       </c>
       <c r="M6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <v>19</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <v>53</v>
       </c>
     </row>
@@ -11787,22 +12055,22 @@
       <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>449</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>4826</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>8.5</v>
       </c>
       <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <v>23</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <v>71</v>
       </c>
     </row>
@@ -11822,22 +12090,22 @@
       <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>326</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>4975</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>6.1</v>
       </c>
       <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>22</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <v>78</v>
       </c>
     </row>

--- a/2024-Stock-RealtimeSupervision.xlsx
+++ b/2024-Stock-RealtimeSupervision.xlsx
@@ -76,11 +76,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -685,12 +686,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,6 +697,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,30 +998,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr defTabSz="914400">
-              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>资金流向</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1024,10 +1007,234 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-02-05'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>主力净流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-02-05'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-02-05'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-92.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-183.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-213.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-291.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-247.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-249.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-302.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-02-05'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>北向流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-02-05'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-02-05'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-12.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="832234819"/>
+        <c:axId val="266222809"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1036,7 +1243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$B$1</c:f>
+              <c:f>'2024-02-05'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +1269,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'2024-02-05'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1095,10 +1302,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$B$2:$B$9</c:f>
+              <c:f>'2024-02-05'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2702</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1114,173 +1345,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="413117134"/>
-        <c:axId val="384872012"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>主力净流入(亿)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>超大单</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="384612088"/>
-        <c:axId val="187895799"/>
+        <c:axId val="297342198"/>
+        <c:axId val="547133921"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413117134"/>
+        <c:axId val="832234819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1390,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384872012"/>
+        <c:crossAx val="266222809"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384872012"/>
+        <c:axId val="266222809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,12 +1447,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413117134"/>
+        <c:crossAx val="832234819"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="384612088"/>
+        <c:axId val="297342198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1480,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187895799"/>
+        <c:crossAx val="547133921"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1419,9 +1488,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187895799"/>
+        <c:axId val="547133921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2800"/>
+          <c:min val="2500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1455,9 +1526,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384612088"/>
+        <c:crossAx val="297342198"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1526,9 +1598,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6429,7 +6503,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.430263157894737"/>
+          <c:y val="0.0243055555555556"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6451,7 +6532,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$N$1</c:f>
+              <c:f>'2024-02-05'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6475,7 +6556,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-05'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6508,10 +6589,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$N$2:$N$9</c:f>
+              <c:f>'2024-02-05'!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.0_ ">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="0.0_ ">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="0.0_ ">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6526,8 +6631,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="73498901"/>
-        <c:axId val="660564024"/>
+        <c:axId val="987398199"/>
+        <c:axId val="907184762"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6537,7 +6642,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$L$1</c:f>
+              <c:f>'2024-02-05'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6563,7 +6668,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-05'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6596,10 +6701,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$L$2:$L$9</c:f>
+              <c:f>'2024-02-05'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6610,7 +6739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$M$1</c:f>
+              <c:f>'2024-02-05'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6636,7 +6765,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-05'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -6669,10 +6798,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$M$2:$M$9</c:f>
+              <c:f>'2024-02-05'!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6688,11 +6841,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="914889742"/>
-        <c:axId val="652132006"/>
+        <c:axId val="258535249"/>
+        <c:axId val="592369609"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914889742"/>
+        <c:axId val="987398199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6733,7 +6886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652132006"/>
+        <c:crossAx val="907184762"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6741,9 +6894,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652132006"/>
+        <c:axId val="907184762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6790,12 +6944,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914889742"/>
+        <c:crossAx val="987398199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="73498901"/>
+        <c:axId val="258535249"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660564024"/>
+        <c:crossAx val="592369609"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6831,7 +6986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660564024"/>
+        <c:axId val="592369609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6867,7 +7022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73498901"/>
+        <c:crossAx val="258535249"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6938,9 +7093,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7005,7 +7162,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$R$1</c:f>
+              <c:f>'2024-02-05'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7029,7 +7186,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'2024-02-05'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7062,10 +7219,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$R$2:$R$9</c:f>
+              <c:f>'2024-02-05'!$R$2:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7075,7 +7256,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$S$1</c:f>
+              <c:f>'2024-02-05'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7099,7 +7280,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'2024-02-05'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7132,10 +7313,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$S$2:$S$9</c:f>
+              <c:f>'2024-02-05'!$S$2:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1368</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7150,11 +7355,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187314922"/>
-        <c:axId val="95820550"/>
+        <c:axId val="549258015"/>
+        <c:axId val="491305859"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187314922"/>
+        <c:axId val="549258015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7195,7 +7400,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95820550"/>
+        <c:crossAx val="491305859"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7203,9 +7408,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95820550"/>
+        <c:axId val="491305859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7252,9 +7458,11 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187314922"/>
+        <c:crossAx val="549258015"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7323,9 +7531,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -20803,24 +21013,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1066165</xdr:colOff>
+      <xdr:colOff>977900</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67945" y="2159000"/>
-        <a:ext cx="5837555" cy="2676525"/>
+        <a:off x="123825" y="1892300"/>
+        <a:ext cx="5778500" cy="3075940"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20833,24 +21043,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7362825" y="2072640"/>
-        <a:ext cx="4149725" cy="2781935"/>
+        <a:off x="7353300" y="1997075"/>
+        <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20862,25 +21072,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>678815</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="8" name="图表 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13087350" y="2063750"/>
-        <a:ext cx="3636010" cy="2733675"/>
+        <a:off x="13103225" y="1892300"/>
+        <a:ext cx="4282440" cy="3714115"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -20904,9 +21114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>6985</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -20915,7 +21125,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="19050" y="1873250"/>
-        <a:ext cx="4131310" cy="2762250"/>
+        <a:ext cx="4140200" cy="3599180"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -21621,7 +21831,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="N9" sqref="L9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21659,10 +21869,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -21699,202 +21909,404 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3">
+      <c r="B2" s="1">
+        <v>2692</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-92.29</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-32</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-61</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>90.4</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-12.4</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="1">
+        <v>234</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5095</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.5</v>
+      </c>
       <c r="O2" s="1"/>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>0.416666666666667</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="V2" s="3"/>
+      <c r="R2" s="1">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1">
+        <v>256</v>
+      </c>
+      <c r="V2" s="2"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3">
+      <c r="B3" s="1">
+        <v>2674</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-183.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-74.7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>-108.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20.1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>163.1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-12.4</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="1">
+        <v>153</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5183</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.9</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.4375</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="V3" s="3"/>
+      <c r="R3" s="1">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1">
+        <v>764</v>
+      </c>
+      <c r="V3" s="2"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
+      <c r="B4" s="1">
+        <v>2656</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-213.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-89.7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-126</v>
+      </c>
+      <c r="F4" s="4">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4">
+        <v>187.8</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-20.8</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5234</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.8</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.458333333333333</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="V4" s="3"/>
+      <c r="R4" s="1">
+        <v>9</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1155</v>
+      </c>
+      <c r="V4" s="2"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3">
+      <c r="B5" s="1">
+        <v>2637</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-249</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-110</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-146</v>
+      </c>
+      <c r="F5" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="G5" s="4">
+        <v>223</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="L5" s="1">
+        <v>69</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5270</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.2</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>0.479166666666667</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="V5" s="3"/>
+      <c r="R5" s="1">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1377</v>
+      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:22">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="3">
+      <c r="B6" s="1">
+        <v>2704</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-291.3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-125.2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-165.8</v>
+      </c>
+      <c r="F6" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>238.4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6" s="3">
+      <c r="L6" s="4">
+        <v>363</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4966</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" s="3"/>
+      <c r="R6" s="4">
+        <v>11</v>
+      </c>
+      <c r="S6" s="4">
+        <v>608</v>
+      </c>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:22">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="3">
+      <c r="B7" s="1">
+        <v>2728</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-247.1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-107.7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>-139.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>201.5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" s="3">
+      <c r="L7" s="4">
+        <v>639</v>
+      </c>
+      <c r="M7" s="4">
+        <v>4669</v>
+      </c>
+      <c r="N7" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" s="3"/>
+      <c r="R7" s="4">
+        <v>19</v>
+      </c>
+      <c r="S7" s="4">
+        <v>387</v>
+      </c>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:22">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="3">
+      <c r="B8" s="1">
+        <v>2714</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-249.4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-108.5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>-141</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45.7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>203.8</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-14.6</v>
+      </c>
+      <c r="K8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" s="3">
+      <c r="L8" s="4">
+        <v>533</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4789</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8" s="3"/>
+      <c r="R8" s="4">
+        <v>22</v>
+      </c>
+      <c r="S8" s="4">
+        <v>720</v>
+      </c>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
-      <c r="K9" s="3">
+      <c r="B9" s="1">
+        <v>2702</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-302.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-132.9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-169.9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>260.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.625</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="L9" s="1">
+        <v>427</v>
+      </c>
+      <c r="M9" s="1">
+        <v>4898</v>
+      </c>
+      <c r="N9" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0.625</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="R9" s="1">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1368</v>
+      </c>
+      <c r="V9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21909,7 +22321,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -21971,7 +22383,7 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -21983,8 +22395,8 @@
       <c r="D2" s="1">
         <v>-18.7</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -21997,7 +22409,7 @@
         <v>18.5</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -22006,36 +22418,36 @@
       <c r="O2" s="1">
         <v>61</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="R3" s="3"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -22047,8 +22459,8 @@
       <c r="D4" s="1">
         <v>-21.2</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -22061,7 +22473,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -22070,12 +22482,12 @@
       <c r="O4" s="1">
         <v>70</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -22087,8 +22499,8 @@
       <c r="D5" s="1">
         <v>-18.2</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -22101,7 +22513,7 @@
         <v>8.8</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -22110,12 +22522,12 @@
       <c r="O5" s="1">
         <v>72</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -22127,31 +22539,31 @@
       <c r="D6" s="1">
         <v>-21.5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>441</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>4859</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>8.1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>24</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>76</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -22163,31 +22575,31 @@
       <c r="D7" s="1">
         <v>-18.2</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>270</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>5043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>5.2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>23</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>100</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -22199,31 +22611,31 @@
       <c r="D8" s="1">
         <v>-12.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>187</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>5149</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>3.5</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>23</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>144</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -22235,7 +22647,7 @@
       <c r="D9" s="1">
         <v>23.6</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -22247,7 +22659,7 @@
       <c r="J9" s="1">
         <v>7.3</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -22256,7 +22668,7 @@
       <c r="O9" s="1">
         <v>108</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22333,7 +22745,7 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -22345,8 +22757,8 @@
       <c r="D2" s="1">
         <v>8.57</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -22359,7 +22771,7 @@
         <v>6.9</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -22368,12 +22780,12 @@
       <c r="O2" s="1">
         <v>91</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -22385,8 +22797,8 @@
       <c r="D3" s="1">
         <v>29.68</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -22399,7 +22811,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -22408,36 +22820,36 @@
       <c r="O3" s="1">
         <v>59</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -22449,8 +22861,8 @@
       <c r="D5" s="1">
         <v>38.9</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -22463,7 +22875,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -22472,12 +22884,12 @@
       <c r="O5" s="1">
         <v>66</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -22489,7 +22901,7 @@
       <c r="D6" s="1">
         <v>30.4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -22501,7 +22913,7 @@
       <c r="J6" s="1">
         <v>24.7</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -22510,10 +22922,10 @@
       <c r="O6" s="1">
         <v>72</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -22525,7 +22937,7 @@
       <c r="D7" s="1">
         <v>25.6</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="H7" s="1">
@@ -22537,7 +22949,7 @@
       <c r="J7" s="1">
         <v>27.4</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -22546,10 +22958,10 @@
       <c r="O7" s="1">
         <v>78</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -22561,7 +22973,7 @@
       <c r="D8" s="1">
         <v>27.3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -22573,7 +22985,7 @@
       <c r="J8" s="1">
         <v>22</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="N8" s="1">
@@ -22582,10 +22994,10 @@
       <c r="O8" s="1">
         <v>93</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -22597,7 +23009,7 @@
       <c r="D9" s="1">
         <v>27.3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -22609,7 +23021,7 @@
       <c r="J9" s="1">
         <v>21.8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -22618,7 +23030,7 @@
       <c r="O9" s="1">
         <v>99</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22701,7 +23113,7 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -22713,8 +23125,8 @@
       <c r="D2" s="1">
         <v>1.62</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -22727,7 +23139,7 @@
         <v>14.6</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -22736,14 +23148,14 @@
       <c r="O2" s="1">
         <v>73</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -22755,8 +23167,8 @@
       <c r="D3" s="1">
         <v>3.6</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -22769,7 +23181,7 @@
         <v>10.6</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -22778,14 +23190,14 @@
       <c r="O3" s="1">
         <v>87</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>0.4375</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -22797,8 +23209,8 @@
       <c r="D4" s="1">
         <v>9.46</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -22811,7 +23223,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -22820,14 +23232,14 @@
       <c r="O4" s="1">
         <v>87</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -22839,8 +23251,8 @@
       <c r="D5" s="1">
         <v>7.41</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -22853,7 +23265,7 @@
         <v>18.1</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -22862,14 +23274,14 @@
       <c r="O5" s="1">
         <v>82</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -22881,7 +23293,7 @@
       <c r="D6" s="1">
         <v>2.73</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -22893,7 +23305,7 @@
       <c r="J6" s="1">
         <v>14.4</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -22902,21 +23314,21 @@
       <c r="O6" s="1">
         <v>95</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>0.5625</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -22925,12 +23337,12 @@
       <c r="O7" s="1">
         <v>158</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -22942,7 +23354,7 @@
       <c r="D8" s="1">
         <v>19.22</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -22954,15 +23366,15 @@
       <c r="J8" s="1">
         <v>9.3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>0.604166666666667</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -22974,7 +23386,7 @@
       <c r="D9" s="1">
         <v>37</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -22986,7 +23398,7 @@
       <c r="J9" s="1">
         <v>9.2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -22995,7 +23407,7 @@
       <c r="O9" s="1">
         <v>184</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>0.625</v>
       </c>
     </row>
@@ -23069,7 +23481,7 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -23081,8 +23493,8 @@
       <c r="D2" s="1">
         <v>-2.3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -23095,7 +23507,7 @@
         <v>21.8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -23106,7 +23518,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -23118,8 +23530,8 @@
       <c r="D3" s="1">
         <v>-18.4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -23132,7 +23544,7 @@
         <v>20.1</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -23143,7 +23555,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -23155,8 +23567,8 @@
       <c r="D4" s="1">
         <v>-14.1</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -23169,7 +23581,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -23180,7 +23592,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -23192,8 +23604,8 @@
       <c r="D5" s="1">
         <v>-19.8</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -23206,7 +23618,7 @@
         <v>18.3</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -23217,7 +23629,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -23229,7 +23641,7 @@
       <c r="D6" s="1">
         <v>-25.3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -23241,7 +23653,7 @@
       <c r="J6" s="1">
         <v>10.1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -23252,7 +23664,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -23264,7 +23676,7 @@
       <c r="D7" s="1">
         <v>-30.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="H7" s="1">
@@ -23276,7 +23688,7 @@
       <c r="J7" s="1">
         <v>8.5</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -23287,7 +23699,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -23299,7 +23711,7 @@
       <c r="D8" s="1">
         <v>-23.3</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -23311,7 +23723,7 @@
       <c r="J8" s="1">
         <v>6.1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="N8" s="1">
@@ -23322,7 +23734,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -23334,7 +23746,7 @@
       <c r="D9" s="1">
         <v>17.4</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -23346,7 +23758,7 @@
       <c r="J9" s="1">
         <v>5.9</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -23407,10 +23819,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -23447,157 +23859,157 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>0.416666666666667</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="V2" s="3"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="3">
+      <c r="J3" s="3"/>
+      <c r="K3" s="2">
         <v>0.4375</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>0.4375</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3">
+      <c r="J4" s="3"/>
+      <c r="K4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>0.458333333333333</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="V4" s="3"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>0.479166666666667</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="V5" s="3"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>0.5625</v>
       </c>
-      <c r="V6" s="3"/>
+      <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>0.583333333333333</v>
       </c>
-      <c r="V7" s="3"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>0.604166666666667</v>
       </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>0.625</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>0.625</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>0.625</v>
       </c>
-      <c r="V9" s="3"/>
+      <c r="V9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2024-Stock-RealtimeSupervision.xlsx
+++ b/2024-Stock-RealtimeSupervision.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="6"/>
+    <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="2024-02-07" sheetId="8" r:id="rId1"/>
-    <sheet name="2024-02-06" sheetId="7" r:id="rId2"/>
-    <sheet name="2024-02-05" sheetId="6" r:id="rId3"/>
-    <sheet name="2024-02-02" sheetId="5" r:id="rId4"/>
-    <sheet name="2024-02-01" sheetId="4" r:id="rId5"/>
-    <sheet name="2024-01-31" sheetId="3" r:id="rId6"/>
-    <sheet name="2024-01-30" sheetId="2" r:id="rId7"/>
-    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId8"/>
+    <sheet name="2024-02-07板块" sheetId="10" r:id="rId2"/>
+    <sheet name="2024-02-06" sheetId="7" r:id="rId3"/>
+    <sheet name="2024-02-05" sheetId="6" r:id="rId4"/>
+    <sheet name="2024-02-02" sheetId="5" r:id="rId5"/>
+    <sheet name="2024-02-01" sheetId="4" r:id="rId6"/>
+    <sheet name="2024-01-31" sheetId="3" r:id="rId7"/>
+    <sheet name="2024-01-30" sheetId="2" r:id="rId8"/>
+    <sheet name="大盘实时数据(模板)" sheetId="1" r:id="rId9"/>
+    <sheet name="板块概念数据(模板)" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -33,9 +36,6 @@
   </si>
   <si>
     <t>超大单</t>
-  </si>
-  <si>
-    <t>大单</t>
   </si>
   <si>
     <t>中单</t>
@@ -65,7 +65,88 @@
     <t>跌停数</t>
   </si>
   <si>
+    <t>行业板块</t>
+  </si>
+  <si>
     <t>资金流入(亿)</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
+    <t>汽车整车</t>
+  </si>
+  <si>
+    <t>通用设备</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>医疗服务</t>
+  </si>
+  <si>
+    <t>概念板块</t>
+  </si>
+  <si>
+    <t>涨幅</t>
+  </si>
+  <si>
+    <t>领涨</t>
+  </si>
+  <si>
+    <t>稀土永磁</t>
+  </si>
+  <si>
+    <t>中国稀土</t>
+  </si>
+  <si>
+    <t>高宽带内存</t>
+  </si>
+  <si>
+    <t>香农芯创</t>
+  </si>
+  <si>
+    <t>MLCC</t>
+  </si>
+  <si>
+    <t>鸿远电子</t>
+  </si>
+  <si>
+    <t>麒麟电池</t>
+  </si>
+  <si>
+    <t>富临精工</t>
+  </si>
+  <si>
+    <t>减肥药</t>
+  </si>
+  <si>
+    <t>甘李药业</t>
+  </si>
+  <si>
+    <t>国资云</t>
+  </si>
+  <si>
+    <t>卓朗科技</t>
+  </si>
+  <si>
+    <t>第四代半导体</t>
+  </si>
+  <si>
+    <t>南大光电</t>
+  </si>
+  <si>
+    <t>中芯概念</t>
+  </si>
+  <si>
+    <t>有研新材</t>
+  </si>
+  <si>
+    <t>大单</t>
   </si>
   <si>
     <t>板块上涨率</t>
@@ -688,9 +769,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,10 +788,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1103,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>资金流向</a:t>
+              <a:t>资金流入</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1037,6 +1121,211 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-02-07'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>主力净流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-02-07'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-02-07'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-125.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-189.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-213.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2024-02-07'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>北向流入(亿)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2024-02-07'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" c:formatCode="h:mm">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm">
+                  <c:v>0.458333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm">
+                  <c:v>0.479166666666667</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm">
+                  <c:v>0.604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm">
+                  <c:v>0.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2024-02-07'!$H$2:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="278439802"/>
+        <c:axId val="769844107"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1045,7 +1334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$B$1</c:f>
+              <c:f>'2024-02-07'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1071,7 +1360,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'2024-02-07'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1104,10 +1393,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$B$2:$B$9</c:f>
+              <c:f>'2024-02-07'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2821</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2817</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2829</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1123,173 +1436,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="413117134"/>
-        <c:axId val="384872012"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>主力净流入(亿)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>超大单</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
-                  <c:v>0.625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$D$2:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="384612088"/>
-        <c:axId val="187895799"/>
+        <c:axId val="317171628"/>
+        <c:axId val="771940989"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413117134"/>
+        <c:axId val="278439802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1481,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384872012"/>
+        <c:crossAx val="769844107"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1338,9 +1489,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384872012"/>
+        <c:axId val="769844107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="-250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1387,12 +1540,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413117134"/>
+        <c:crossAx val="278439802"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="384612088"/>
+        <c:axId val="317171628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1574,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187895799"/>
+        <c:crossAx val="771940989"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1428,9 +1582,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187895799"/>
+        <c:axId val="771940989"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2900"/>
+          <c:min val="2750"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1464,9 +1620,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384612088"/>
+        <c:crossAx val="317171628"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1535,9 +1692,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7228,7 +7387,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$N$1</c:f>
+              <c:f>'2024-02-07'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7252,7 +7411,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-07'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7285,10 +7444,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$N$2:$N$9</c:f>
+              <c:f>'2024-02-07'!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7303,8 +7486,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="73498901"/>
-        <c:axId val="660564024"/>
+        <c:axId val="235783552"/>
+        <c:axId val="56799787"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7314,7 +7497,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$L$1</c:f>
+              <c:f>'2024-02-07'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7340,7 +7523,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-07'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7373,10 +7556,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$L$2:$L$9</c:f>
+              <c:f>'2024-02-07'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2210</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7387,7 +7594,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$M$1</c:f>
+              <c:f>'2024-02-07'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7413,7 +7620,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'2024-02-07'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7446,10 +7653,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$M$2:$M$9</c:f>
+              <c:f>'2024-02-07'!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2140</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3052</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3089</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7465,11 +7696,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="914889742"/>
-        <c:axId val="652132006"/>
+        <c:axId val="606351917"/>
+        <c:axId val="716344019"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="914889742"/>
+        <c:axId val="235783552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,7 +7741,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652132006"/>
+        <c:crossAx val="56799787"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7518,9 +7749,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="652132006"/>
+        <c:axId val="56799787"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7567,12 +7799,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914889742"/>
+        <c:crossAx val="235783552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="73498901"/>
+        <c:axId val="606351917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7600,7 +7833,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660564024"/>
+        <c:crossAx val="716344019"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7608,9 +7841,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="660564024"/>
+        <c:axId val="716344019"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -7644,9 +7878,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73498901"/>
+        <c:crossAx val="606351917"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7715,9 +7950,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8873,32 +9110,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -8906,10 +9131,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$B$2:$B$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8962,32 +9187,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -8995,10 +9208,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$C$2:$C$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9035,32 +9248,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$A$2:$A$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -9068,10 +9269,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$D$2:$D$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9430,32 +9631,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -9463,10 +9652,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$N$2:$N$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$N$2:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9518,32 +9707,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -9551,10 +9728,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$L$2:$L$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$L$2:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9591,32 +9768,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$K$2:$K$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$K$2:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -9624,10 +9789,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$M$2:$M$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$M$2:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9986,32 +10151,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -10019,10 +10172,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$R$2:$R$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$R$2:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10056,32 +10209,20 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$5</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="h:mm">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="h:mm">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.479166666666667</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="h:mm">
-                  <c:v>0.458333333333333</c:v>
+                  <c:v>0.583333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="h:mm">
-                  <c:v>0.479166666666667</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm">
-                  <c:v>0.583333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm">
-                  <c:v>0.604166666666667</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm">
                   <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
@@ -10089,10 +10230,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$S$2:$S$9</c:f>
+              <c:f>'大盘实时数据(模板)'!$S$2:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10349,7 +10490,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$R$1</c:f>
+              <c:f>'2024-02-07'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10373,7 +10514,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'2024-02-07'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10406,10 +10547,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$R$2:$R$9</c:f>
+              <c:f>'2024-02-07'!$R$2:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10419,7 +10584,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'大盘实时数据(模板)'!$S$1</c:f>
+              <c:f>'2024-02-07'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10443,7 +10608,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$Q$2:$Q$9</c:f>
+              <c:f>'2024-02-07'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>h:mm</c:formatCode>
                 <c:ptCount val="8"/>
@@ -10476,10 +10641,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'大盘实时数据(模板)'!$S$2:$S$9</c:f>
+              <c:f>'2024-02-07'!$S$2:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10494,11 +10683,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="187314922"/>
-        <c:axId val="95820550"/>
+        <c:axId val="948866833"/>
+        <c:axId val="677030489"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187314922"/>
+        <c:axId val="948866833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10539,7 +10728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95820550"/>
+        <c:crossAx val="677030489"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10547,9 +10736,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95820550"/>
+        <c:axId val="677030489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10596,9 +10787,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187314922"/>
+        <c:crossAx val="948866833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10667,9 +10859,11 @@
       </a:pPr>
     </a:p>
   </c:txPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -27582,24 +27776,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1066165</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67945" y="2159000"/>
-        <a:ext cx="5837555" cy="2676525"/>
+        <a:off x="57150" y="1882775"/>
+        <a:ext cx="5872480" cy="4667250"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27611,25 +27805,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7362825" y="2072640"/>
-        <a:ext cx="4149725" cy="2781935"/>
+        <a:off x="7391400" y="1924050"/>
+        <a:ext cx="4150360" cy="4265930"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -27642,24 +27836,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="7" name="图表 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13087350" y="2063750"/>
-        <a:ext cx="3636010" cy="2733675"/>
+        <a:off x="13071475" y="1892935"/>
+        <a:ext cx="3683000" cy="4028440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -28248,13 +28442,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>67945</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1066165</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -28263,7 +28457,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="67945" y="2159000"/>
+        <a:off x="67945" y="1473200"/>
         <a:ext cx="5837555" cy="2676525"/>
       </xdr:xfrm>
       <a:graphic>
@@ -28278,13 +28472,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -28293,7 +28487,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7362825" y="2072640"/>
+        <a:off x="7362825" y="1386840"/>
         <a:ext cx="4149725" cy="2781935"/>
       </xdr:xfrm>
       <a:graphic>
@@ -28308,13 +28502,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>16510</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -28323,7 +28517,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13087350" y="2063750"/>
+        <a:off x="13087350" y="1377950"/>
         <a:ext cx="3636010" cy="2733675"/>
       </xdr:xfrm>
       <a:graphic>
@@ -28589,8 +28783,8 @@
   <sheetPr/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -28628,242 +28822,444 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>-196</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2">
+      <c r="B2" s="1">
+        <v>2801</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>16.6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-6.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-30.9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="1">
+        <v>3017</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2262</v>
+      </c>
+      <c r="N2" s="1">
+        <v>57.2</v>
+      </c>
       <c r="O2" s="1"/>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>0.416666666666667</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="V2" s="2"/>
+      <c r="R2" s="1">
+        <v>56</v>
+      </c>
+      <c r="S2" s="1">
+        <v>33</v>
+      </c>
+      <c r="V2" s="3"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2">
+      <c r="B3" s="1">
+        <v>2821</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-16.4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-49.4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>0.4375</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="L3" s="1">
+        <v>3518</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1769</v>
+      </c>
+      <c r="N3" s="1">
+        <v>69</v>
+      </c>
       <c r="O3" s="1"/>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>0.4375</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="V3" s="2"/>
+      <c r="R3" s="1">
+        <v>97</v>
+      </c>
+      <c r="S3" s="1">
+        <v>29</v>
+      </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2">
+      <c r="B4" s="1">
+        <v>2805</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-53</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-66</v>
+      </c>
+      <c r="G4" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>0.458333333333333</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="1">
+        <v>2944</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2335</v>
+      </c>
+      <c r="N4" s="1">
+        <v>55</v>
+      </c>
       <c r="O4" s="1"/>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>0.458333333333333</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="V4" s="2"/>
+      <c r="R4" s="1">
+        <v>96</v>
+      </c>
+      <c r="S4" s="1">
+        <v>74</v>
+      </c>
+      <c r="V4" s="3"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2">
+      <c r="B5" s="1">
+        <v>2813</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-35.8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-65.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-72</v>
+      </c>
+      <c r="G5" s="2">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
         <v>0.479166666666667</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="L5" s="1">
+        <v>3120</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2140</v>
+      </c>
+      <c r="N5" s="1">
+        <v>58</v>
+      </c>
       <c r="O5" s="1"/>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>0.479166666666667</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="V5" s="2"/>
+      <c r="R5" s="1">
+        <v>116</v>
+      </c>
+      <c r="S5" s="1">
+        <v>75</v>
+      </c>
+      <c r="V5" s="3"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:22">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="2">
+      <c r="B6" s="1">
+        <v>2808</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26.2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-112</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-90.2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>176.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
         <v>0.5625</v>
       </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6" s="2">
+      <c r="L6" s="2">
+        <v>2314</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2960</v>
+      </c>
+      <c r="N6" s="2">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="3">
         <v>0.5625</v>
       </c>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" s="2"/>
+      <c r="R6" s="2">
+        <v>91</v>
+      </c>
+      <c r="S6" s="2">
+        <v>141</v>
+      </c>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:22">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="2">
+      <c r="B7" s="1">
+        <v>2817</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-125.3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-150</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-98</v>
+      </c>
+      <c r="G7" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" s="2">
+      <c r="L7" s="2">
+        <v>2228</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3052</v>
+      </c>
+      <c r="N7" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" s="2"/>
+      <c r="R7" s="2">
+        <v>84</v>
+      </c>
+      <c r="S7" s="2">
+        <v>172</v>
+      </c>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:22">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="2">
+      <c r="B8" s="1">
+        <v>2806</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-189.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-196</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-124.2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>313.5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-4.9</v>
+      </c>
+      <c r="K8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" s="2">
+      <c r="L8" s="2">
+        <v>1889</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3411</v>
+      </c>
+      <c r="N8" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8" s="2"/>
+      <c r="R8" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" s="2">
+        <v>292</v>
+      </c>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
-      <c r="K9" s="2">
+      <c r="B9" s="1">
+        <v>2829</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-213.4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-220</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-160</v>
+      </c>
+      <c r="G9" s="1">
+        <v>373</v>
+      </c>
+      <c r="H9" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="K9" s="3">
         <v>0.625</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="L9" s="1">
+        <v>2210</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3089</v>
+      </c>
+      <c r="N9" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0.625</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="R9" s="1">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1">
+        <v>282</v>
+      </c>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28872,7 +29268,701 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="6" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="6" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" customFormat="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:6">
+      <c r="A14" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.056</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.052</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.051</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.048</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.047</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.046</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.045</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="3">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A50:A55"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -28917,46 +30007,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -28968,20 +30058,20 @@
       <c r="D2" s="1">
         <v>21</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>2.63</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="1">
         <v>-9.2</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="1">
         <v>-14.5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
         <v>12.2</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2">
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="L2" s="1">
@@ -28994,7 +30084,7 @@
         <v>36.8</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="R2" s="1">
@@ -29003,12 +30093,12 @@
       <c r="S2" s="1">
         <v>294</v>
       </c>
-      <c r="V2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -29020,20 +30110,20 @@
       <c r="D3" s="1">
         <v>32.8</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>4.4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="1">
         <v>-9.3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="1">
         <v>-27.9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
         <v>34.6</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>0.4375</v>
       </c>
       <c r="L3" s="1">
@@ -29046,7 +30136,7 @@
         <v>39</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>0.4375</v>
       </c>
       <c r="R3" s="1">
@@ -29055,12 +30145,12 @@
       <c r="S3" s="1">
         <v>368</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -29072,20 +30162,20 @@
       <c r="D4" s="1">
         <v>45.2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>14.8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="1">
         <v>-14</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="1">
         <v>-46</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="1">
         <v>30.8</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="L4" s="1">
@@ -29098,7 +30188,7 @@
         <v>38</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="R4" s="1">
@@ -29107,12 +30197,12 @@
       <c r="S4" s="1">
         <v>439</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -29124,20 +30214,20 @@
       <c r="D5" s="1">
         <v>48.2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>6.6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>-20.7</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>-34.1</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>40.9</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2">
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="L5" s="1">
@@ -29150,7 +30240,7 @@
         <v>37.6</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="R5" s="1">
@@ -29159,12 +30249,12 @@
       <c r="S5" s="1">
         <v>539</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:22">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -29173,52 +30263,46 @@
       <c r="C6" s="1">
         <v>136.1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>89.4</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>47</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>-42.6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>-93.8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>110.8</v>
       </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0.5625</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="1">
         <v>3402</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="1">
         <v>1888</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="1">
         <v>62</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>0.5625</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="1">
         <v>56</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="1">
         <v>138</v>
       </c>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6" s="2"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:22">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -29230,49 +30314,43 @@
       <c r="D7" s="1">
         <v>141.4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>69.4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>-54.3</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="1">
         <v>-156.6</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>121.5</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="1">
         <v>4351</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="1">
         <v>949</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="1">
         <v>81</v>
       </c>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="1">
         <v>108</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="1">
         <v>33</v>
       </c>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" s="2"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:22">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -29284,49 +30362,43 @@
       <c r="D8" s="1">
         <v>145.8</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>62.2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="1">
         <v>-64</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="1">
         <v>-143.9</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="1">
         <v>136.7</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="1">
         <v>3593</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="1">
         <v>1708</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="1">
         <v>70</v>
       </c>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="1">
         <v>93</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="1">
         <v>165</v>
       </c>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8" s="2"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -29350,7 +30422,7 @@
       <c r="H9" s="1">
         <v>126.1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0.625</v>
       </c>
       <c r="L9" s="1">
@@ -29362,7 +30434,7 @@
       <c r="N9" s="1">
         <v>75</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>0.625</v>
       </c>
       <c r="R9" s="1">
@@ -29371,7 +30443,7 @@
       <c r="S9" s="1">
         <v>135</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29380,7 +30452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X9"/>
@@ -29425,46 +30497,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -29488,8 +30560,8 @@
       <c r="H2" s="1">
         <v>-12.4</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2">
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="L2" s="1">
@@ -29502,7 +30574,7 @@
         <v>4.5</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="R2" s="1">
@@ -29511,12 +30583,12 @@
       <c r="S2" s="1">
         <v>256</v>
       </c>
-      <c r="V2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -29540,8 +30612,8 @@
       <c r="H3" s="1">
         <v>-12.4</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2">
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
         <v>0.4375</v>
       </c>
       <c r="L3" s="1">
@@ -29554,7 +30626,7 @@
         <v>2.9</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>0.4375</v>
       </c>
       <c r="R3" s="1">
@@ -29563,12 +30635,12 @@
       <c r="S3" s="1">
         <v>764</v>
       </c>
-      <c r="V3" s="2"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -29592,8 +30664,8 @@
       <c r="H4" s="1">
         <v>-20.8</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2">
+      <c r="J4" s="4"/>
+      <c r="K4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="L4" s="1">
@@ -29606,7 +30678,7 @@
         <v>1.8</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="R4" s="1">
@@ -29615,12 +30687,12 @@
       <c r="S4" s="1">
         <v>1155</v>
       </c>
-      <c r="V4" s="2"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -29644,8 +30716,8 @@
       <c r="H5" s="1">
         <v>-12.5</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2">
+      <c r="J5" s="4"/>
+      <c r="K5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="L5" s="1">
@@ -29658,7 +30730,7 @@
         <v>1.2</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="R5" s="1">
@@ -29667,12 +30739,12 @@
       <c r="S5" s="1">
         <v>1377</v>
       </c>
-      <c r="V5" s="2"/>
+      <c r="V5" s="3"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:22">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -29696,7 +30768,7 @@
       <c r="H6" s="1">
         <v>2.7</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="3">
         <v>0.5625</v>
       </c>
       <c r="L6" s="1">
@@ -29705,10 +30777,10 @@
       <c r="M6" s="1">
         <v>4966</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>7</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>0.5625</v>
       </c>
       <c r="R6" s="1">
@@ -29717,10 +30789,10 @@
       <c r="S6" s="1">
         <v>608</v>
       </c>
-      <c r="V6" s="2"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:22">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -29744,7 +30816,7 @@
       <c r="H7" s="1">
         <v>-8.5</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="L7" s="1">
@@ -29756,7 +30828,7 @@
       <c r="N7" s="1">
         <v>12.5</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="R7" s="1">
@@ -29765,10 +30837,10 @@
       <c r="S7" s="1">
         <v>387</v>
       </c>
-      <c r="V7" s="2"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:22">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -29792,7 +30864,7 @@
       <c r="H8" s="1">
         <v>-14.6</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="L8" s="1">
@@ -29801,10 +30873,10 @@
       <c r="M8" s="1">
         <v>4789</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>10</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="R8" s="1">
@@ -29813,10 +30885,10 @@
       <c r="S8" s="1">
         <v>720</v>
       </c>
-      <c r="V8" s="2"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -29840,7 +30912,7 @@
       <c r="H9" s="1">
         <v>12.1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>0.625</v>
       </c>
       <c r="L9" s="1">
@@ -29849,10 +30921,10 @@
       <c r="M9" s="1">
         <v>4898</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>8</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="3">
         <v>0.625</v>
       </c>
       <c r="R9" s="1">
@@ -29861,7 +30933,7 @@
       <c r="S9" s="1">
         <v>1368</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29870,7 +30942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -29908,37 +30980,37 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -29950,8 +31022,8 @@
       <c r="D2" s="1">
         <v>-18.7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -29964,7 +31036,7 @@
         <v>18.5</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -29973,36 +31045,36 @@
       <c r="O2" s="1">
         <v>61</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -30014,8 +31086,8 @@
       <c r="D4" s="1">
         <v>-21.2</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -30028,7 +31100,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -30037,12 +31109,12 @@
       <c r="O4" s="1">
         <v>70</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -30054,8 +31126,8 @@
       <c r="D5" s="1">
         <v>-18.2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -30068,7 +31140,7 @@
         <v>8.8</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -30077,12 +31149,12 @@
       <c r="O5" s="1">
         <v>72</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -30094,7 +31166,7 @@
       <c r="D6" s="1">
         <v>-21.5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -30106,7 +31178,7 @@
       <c r="J6" s="1">
         <v>8.1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -30115,10 +31187,10 @@
       <c r="O6" s="1">
         <v>76</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -30130,7 +31202,7 @@
       <c r="D7" s="1">
         <v>-18.2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="H7" s="1">
@@ -30142,7 +31214,7 @@
       <c r="J7" s="1">
         <v>5.2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -30151,10 +31223,10 @@
       <c r="O7" s="1">
         <v>100</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -30166,7 +31238,7 @@
       <c r="D8" s="1">
         <v>-12.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -30178,7 +31250,7 @@
       <c r="J8" s="1">
         <v>3.5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="N8" s="1">
@@ -30187,10 +31259,10 @@
       <c r="O8" s="1">
         <v>144</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -30202,7 +31274,7 @@
       <c r="D9" s="1">
         <v>23.6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -30214,7 +31286,7 @@
       <c r="J9" s="1">
         <v>7.3</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -30223,7 +31295,7 @@
       <c r="O9" s="1">
         <v>108</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30232,7 +31304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -30270,37 +31342,37 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -30312,8 +31384,8 @@
       <c r="D2" s="1">
         <v>8.57</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -30326,7 +31398,7 @@
         <v>6.9</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -30335,12 +31407,12 @@
       <c r="O2" s="1">
         <v>91</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="R2" s="3"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -30352,8 +31424,8 @@
       <c r="D3" s="1">
         <v>29.68</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -30366,7 +31438,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -30375,36 +31447,36 @@
       <c r="O3" s="1">
         <v>59</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="3"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="3"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -30416,8 +31488,8 @@
       <c r="D5" s="1">
         <v>38.9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -30430,7 +31502,7 @@
         <v>36</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -30439,12 +31511,12 @@
       <c r="O5" s="1">
         <v>66</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="R5" s="3"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -30456,7 +31528,7 @@
       <c r="D6" s="1">
         <v>30.4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -30468,7 +31540,7 @@
       <c r="J6" s="1">
         <v>24.7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -30477,10 +31549,10 @@
       <c r="O6" s="1">
         <v>72</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -30492,7 +31564,7 @@
       <c r="D7" s="1">
         <v>25.6</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="H7" s="1">
@@ -30504,7 +31576,7 @@
       <c r="J7" s="1">
         <v>27.4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -30513,10 +31585,10 @@
       <c r="O7" s="1">
         <v>78</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -30528,7 +31600,7 @@
       <c r="D8" s="1">
         <v>27.3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -30540,7 +31612,7 @@
       <c r="J8" s="1">
         <v>22</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="N8" s="1">
@@ -30549,10 +31621,10 @@
       <c r="O8" s="1">
         <v>93</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -30564,7 +31636,7 @@
       <c r="D9" s="1">
         <v>27.3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -30576,7 +31648,7 @@
       <c r="J9" s="1">
         <v>21.8</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -30585,7 +31657,7 @@
       <c r="O9" s="1">
         <v>99</v>
       </c>
-      <c r="R9" s="2"/>
+      <c r="R9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30594,7 +31666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T9"/>
@@ -30632,43 +31704,43 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -30680,8 +31752,8 @@
       <c r="D2" s="1">
         <v>1.62</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -30694,7 +31766,7 @@
         <v>14.6</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -30703,14 +31775,14 @@
       <c r="O2" s="1">
         <v>73</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -30722,8 +31794,8 @@
       <c r="D3" s="1">
         <v>3.6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -30736,7 +31808,7 @@
         <v>10.6</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -30745,14 +31817,14 @@
       <c r="O3" s="1">
         <v>87</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="3">
         <v>0.4375</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -30764,8 +31836,8 @@
       <c r="D4" s="1">
         <v>9.46</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -30778,7 +31850,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -30787,14 +31859,14 @@
       <c r="O4" s="1">
         <v>87</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -30806,8 +31878,8 @@
       <c r="D5" s="1">
         <v>7.41</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -30820,7 +31892,7 @@
         <v>18.1</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -30829,14 +31901,14 @@
       <c r="O5" s="1">
         <v>82</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="1:18">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -30848,7 +31920,7 @@
       <c r="D6" s="1">
         <v>2.73</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -30860,7 +31932,7 @@
       <c r="J6" s="1">
         <v>14.4</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -30869,21 +31941,21 @@
       <c r="O6" s="1">
         <v>95</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>0.5625</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:18">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -30892,12 +31964,12 @@
       <c r="O7" s="1">
         <v>158</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="3">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:18">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -30909,7 +31981,7 @@
       <c r="D8" s="1">
         <v>19.22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -30921,15 +31993,15 @@
       <c r="J8" s="1">
         <v>9.3</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0.604166666666667</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="3">
         <v>0.604166666666667</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:18">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -30941,7 +32013,7 @@
       <c r="D9" s="1">
         <v>37</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -30953,7 +32025,7 @@
       <c r="J9" s="1">
         <v>9.2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -30962,7 +32034,7 @@
       <c r="O9" s="1">
         <v>184</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="3">
         <v>0.625</v>
       </c>
     </row>
@@ -30973,12 +32045,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9:J9"/>
     </sheetView>
   </sheetViews>
@@ -31009,34 +32081,34 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="B2" s="1">
@@ -31048,8 +32120,8 @@
       <c r="D2" s="1">
         <v>-2.3</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="H2" s="1">
@@ -31062,7 +32134,7 @@
         <v>21.8</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>0.416666666666667</v>
       </c>
       <c r="N2" s="1">
@@ -31073,7 +32145,7 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>0.4375</v>
       </c>
       <c r="B3" s="1">
@@ -31085,8 +32157,8 @@
       <c r="D3" s="1">
         <v>-18.4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2">
+      <c r="F3" s="4"/>
+      <c r="G3" s="3">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
@@ -31099,7 +32171,7 @@
         <v>20.1</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>0.4375</v>
       </c>
       <c r="N3" s="1">
@@ -31110,7 +32182,7 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="B4" s="1">
@@ -31122,8 +32194,8 @@
       <c r="D4" s="1">
         <v>-14.1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="H4" s="1">
@@ -31136,7 +32208,7 @@
         <v>28</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>0.458333333333333</v>
       </c>
       <c r="N4" s="1">
@@ -31147,7 +32219,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="B5" s="1">
@@ -31159,8 +32231,8 @@
       <c r="D5" s="1">
         <v>-19.8</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2">
+      <c r="F5" s="4"/>
+      <c r="G5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="H5" s="1">
@@ -31173,7 +32245,7 @@
         <v>18.3</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>0.479166666666667</v>
       </c>
       <c r="N5" s="1">
@@ -31184,7 +32256,7 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:15">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>0.5625</v>
       </c>
       <c r="B6" s="1">
@@ -31196,7 +32268,7 @@
       <c r="D6" s="1">
         <v>-25.3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.5625</v>
       </c>
       <c r="H6" s="1">
@@ -31208,7 +32280,7 @@
       <c r="J6" s="1">
         <v>10.1</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>0.5625</v>
       </c>
       <c r="N6" s="1">
@@ -31219,7 +32291,7 @@
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:15">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="B7" s="1">
@@ -31231,7 +32303,7 @@
       <c r="D7" s="1">
         <v>-30.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="H7" s="1">
@@ -31243,7 +32315,7 @@
       <c r="J7" s="1">
         <v>8.5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>0.583333333333333</v>
       </c>
       <c r="N7" s="1">
@@ -31254,7 +32326,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:15">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="B8" s="1">
@@ -31266,7 +32338,7 @@
       <c r="D8" s="1">
         <v>-23.3</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="H8" s="1">
@@ -31278,7 +32350,7 @@
       <c r="J8" s="1">
         <v>6.1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>0.604166666666667</v>
       </c>
       <c r="N8" s="1">
@@ -31289,7 +32361,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:15">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>0.625</v>
       </c>
       <c r="B9" s="1">
@@ -31301,7 +32373,7 @@
       <c r="D9" s="1">
         <v>17.4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.625</v>
       </c>
       <c r="H9" s="1">
@@ -31313,7 +32385,7 @@
       <c r="J9" s="1">
         <v>5.9</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>0.625</v>
       </c>
       <c r="N9" s="1">
@@ -31330,16 +32402,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
@@ -31375,196 +32447,132 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="O1" s="1"/>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="2">
-        <v>0.416666666666667</v>
+      <c r="A2" s="3">
+        <v>0.4375</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2">
-        <v>0.416666666666667</v>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3">
+        <v>0.4375</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="Q2" s="2">
-        <v>0.416666666666667</v>
+      <c r="Q2" s="3">
+        <v>0.4375</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="3">
+        <v>0.4375</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="2">
-        <v>0.4375</v>
+      <c r="A3" s="3">
+        <v>0.479166666666667</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="2">
-        <v>0.4375</v>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3">
+        <v>0.479166666666667</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="Q3" s="2">
-        <v>0.4375</v>
+      <c r="Q3" s="3">
+        <v>0.479166666666667</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="3">
+        <v>0.479166666666667</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24">
-      <c r="A4" s="2">
-        <v>0.458333333333333</v>
+    <row r="4" spans="1:22">
+      <c r="A4" s="3">
+        <v>0.583333333333333</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="2">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="K4" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.583333333333333</v>
+      </c>
     </row>
-    <row r="5" spans="1:24">
-      <c r="A5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="Q5" s="2">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="K6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="K7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="K8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:22">
-      <c r="A9" s="2">
+    <row r="5" s="1" customFormat="1" spans="1:22">
+      <c r="A5" s="3">
         <v>0.625</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K5" s="3">
         <v>0.625</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q5" s="3">
         <v>0.625</v>
       </c>
-      <c r="V9" s="2"/>
+      <c r="V5" s="3">
+        <v>0.625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
